--- a/biology/Zoologie/Aphalara_itadori/Aphalara_itadori.xlsx
+++ b/biology/Zoologie/Aphalara_itadori/Aphalara_itadori.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Psylle de la renouée
-Aphalara itadori, la Psylle de la renouée[2] est une espèce de Psylles de la famille des Aphalaridae, décrite depuis le Japon.
-Il s'agit d'un petit insecte suceur et sauteur se nourrissant de Polygonacées et plus spécifiquement des Renouées Fallopia japonica et Fallopia sachalinensis[3]. En Grande-Bretagne, Aphalara itadori est testée en laboratoire dans le cadre de la lutte contre la propagation de l'espèce invasive Renouée du Japon[4],[5].
-Considérée comme indigène du Japon de la Corée et de Taïwan ainsi que de quelques îles proches comme Ryukyu et Kuril, elle est également présente en Grande-Bretagne[3].
+Aphalara itadori, la Psylle de la renouée est une espèce de Psylles de la famille des Aphalaridae, décrite depuis le Japon.
+Il s'agit d'un petit insecte suceur et sauteur se nourrissant de Polygonacées et plus spécifiquement des Renouées Fallopia japonica et Fallopia sachalinensis. En Grande-Bretagne, Aphalara itadori est testée en laboratoire dans le cadre de la lutte contre la propagation de l'espèce invasive Renouée du Japon,.
+Considérée comme indigène du Japon de la Corée et de Taïwan ainsi que de quelques îles proches comme Ryukyu et Kuril, elle est également présente en Grande-Bretagne.
 </t>
         </is>
       </c>
@@ -515,10 +527,12 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Psylla itadori Shinji, 1938 (basionyme)[3]
-Aphalara kunashirensis Klimaszewski, 1983[3]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Psylla itadori Shinji, 1938 (basionyme)
+Aphalara kunashirensis Klimaszewski, 1983</t>
         </is>
       </c>
     </row>
